--- a/AI-Search-API/MatchWords.xlsx
+++ b/AI-Search-API/MatchWords.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1196"/>
+  <dimension ref="A1:C1206"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A511" workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
@@ -18364,6 +18364,156 @@
         <v>1</v>
       </c>
     </row>
+    <row r="1197">
+      <c r="A1197" t="inlineStr">
+        <is>
+          <t>bsle</t>
+        </is>
+      </c>
+      <c r="B1197" t="inlineStr">
+        <is>
+          <t>cheetos</t>
+        </is>
+      </c>
+      <c r="C1197" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1198">
+      <c r="A1198" t="inlineStr">
+        <is>
+          <t>bsle</t>
+        </is>
+      </c>
+      <c r="B1198" t="inlineStr">
+        <is>
+          <t>btata</t>
+        </is>
+      </c>
+      <c r="C1198" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1199">
+      <c r="A1199" t="inlineStr">
+        <is>
+          <t>bsle</t>
+        </is>
+      </c>
+      <c r="B1199" t="inlineStr">
+        <is>
+          <t>cheetos</t>
+        </is>
+      </c>
+      <c r="C1199" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1200">
+      <c r="A1200" t="inlineStr">
+        <is>
+          <t>bsle</t>
+        </is>
+      </c>
+      <c r="B1200" t="inlineStr">
+        <is>
+          <t>btata</t>
+        </is>
+      </c>
+      <c r="C1200" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1201">
+      <c r="A1201" t="inlineStr">
+        <is>
+          <t>bsle</t>
+        </is>
+      </c>
+      <c r="B1201" t="inlineStr">
+        <is>
+          <t>cheetos</t>
+        </is>
+      </c>
+      <c r="C1201" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1202">
+      <c r="A1202" t="inlineStr">
+        <is>
+          <t>bsle</t>
+        </is>
+      </c>
+      <c r="B1202" t="inlineStr">
+        <is>
+          <t>btata</t>
+        </is>
+      </c>
+      <c r="C1202" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1203">
+      <c r="A1203" t="inlineStr">
+        <is>
+          <t>bsle</t>
+        </is>
+      </c>
+      <c r="B1203" t="inlineStr">
+        <is>
+          <t>cheetos</t>
+        </is>
+      </c>
+      <c r="C1203" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1204">
+      <c r="A1204" t="inlineStr">
+        <is>
+          <t>bsle</t>
+        </is>
+      </c>
+      <c r="B1204" t="inlineStr">
+        <is>
+          <t>btata</t>
+        </is>
+      </c>
+      <c r="C1204" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1205">
+      <c r="A1205" t="inlineStr">
+        <is>
+          <t>bsle</t>
+        </is>
+      </c>
+      <c r="B1205" t="inlineStr">
+        <is>
+          <t>cheetos</t>
+        </is>
+      </c>
+      <c r="C1205" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1206">
+      <c r="A1206" t="inlineStr">
+        <is>
+          <t>bsle</t>
+        </is>
+      </c>
+      <c r="B1206" t="inlineStr">
+        <is>
+          <t>btata</t>
+        </is>
+      </c>
+      <c r="C1206" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/AI-Search-API/MatchWords.xlsx
+++ b/AI-Search-API/MatchWords.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1206"/>
+  <dimension ref="A1:C1214"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A511" workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
@@ -18514,6 +18514,126 @@
         <v>1</v>
       </c>
     </row>
+    <row r="1207">
+      <c r="A1207" t="inlineStr">
+        <is>
+          <t>po3</t>
+        </is>
+      </c>
+      <c r="B1207" t="inlineStr">
+        <is>
+          <t>po3</t>
+        </is>
+      </c>
+      <c r="C1207" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1208">
+      <c r="A1208" t="inlineStr">
+        <is>
+          <t>po3</t>
+        </is>
+      </c>
+      <c r="B1208" t="inlineStr">
+        <is>
+          <t>this</t>
+        </is>
+      </c>
+      <c r="C1208" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1209">
+      <c r="A1209" t="inlineStr">
+        <is>
+          <t>po3</t>
+        </is>
+      </c>
+      <c r="B1209" t="inlineStr">
+        <is>
+          <t>the</t>
+        </is>
+      </c>
+      <c r="C1209" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1210">
+      <c r="A1210" t="inlineStr">
+        <is>
+          <t>po3</t>
+        </is>
+      </c>
+      <c r="B1210" t="inlineStr">
+        <is>
+          <t>therd</t>
+        </is>
+      </c>
+      <c r="C1210" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1211">
+      <c r="A1211" t="inlineStr">
+        <is>
+          <t>po3</t>
+        </is>
+      </c>
+      <c r="B1211" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="C1211" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1212">
+      <c r="A1212" t="inlineStr">
+        <is>
+          <t>po3</t>
+        </is>
+      </c>
+      <c r="B1212" t="inlineStr">
+        <is>
+          <t>harry</t>
+        </is>
+      </c>
+      <c r="C1212" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1213">
+      <c r="A1213" t="inlineStr">
+        <is>
+          <t>po3</t>
+        </is>
+      </c>
+      <c r="B1213" t="inlineStr">
+        <is>
+          <t>potter</t>
+        </is>
+      </c>
+      <c r="C1213" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1214">
+      <c r="A1214" t="inlineStr">
+        <is>
+          <t>po3</t>
+        </is>
+      </c>
+      <c r="B1214" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="C1214" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/AI-Search-API/MatchWords.xlsx
+++ b/AI-Search-API/MatchWords.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1214"/>
+  <dimension ref="A1:C1410"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A511" workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
@@ -18634,6 +18634,2946 @@
         <v>1</v>
       </c>
     </row>
+    <row r="1215">
+      <c r="A1215" t="inlineStr">
+        <is>
+          <t>Galaxy A71</t>
+        </is>
+      </c>
+      <c r="B1215" t="inlineStr">
+        <is>
+          <t>phones</t>
+        </is>
+      </c>
+      <c r="C1215" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1216">
+      <c r="A1216" t="inlineStr">
+        <is>
+          <t>Galaxy A71</t>
+        </is>
+      </c>
+      <c r="B1216" t="inlineStr">
+        <is>
+          <t>samsung</t>
+        </is>
+      </c>
+      <c r="C1216" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1217">
+      <c r="A1217" t="inlineStr">
+        <is>
+          <t>Iphone 15 pro max</t>
+        </is>
+      </c>
+      <c r="B1217" t="inlineStr">
+        <is>
+          <t>phones</t>
+        </is>
+      </c>
+      <c r="C1217" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1218">
+      <c r="A1218" t="inlineStr">
+        <is>
+          <t>Iphone 15 pro max</t>
+        </is>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>iphone</t>
+        </is>
+      </c>
+      <c r="C1218" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1219">
+      <c r="A1219" t="inlineStr">
+        <is>
+          <t>7leeb</t>
+        </is>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>food</t>
+        </is>
+      </c>
+      <c r="C1219" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1220">
+      <c r="A1220" t="inlineStr">
+        <is>
+          <t>7leeb</t>
+        </is>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>veg</t>
+        </is>
+      </c>
+      <c r="C1220" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1221">
+      <c r="A1221" t="inlineStr">
+        <is>
+          <t>Galaxy A71</t>
+        </is>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>phones</t>
+        </is>
+      </c>
+      <c r="C1221" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1222">
+      <c r="A1222" t="inlineStr">
+        <is>
+          <t>Galaxy A71</t>
+        </is>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>samsung</t>
+        </is>
+      </c>
+      <c r="C1222" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1223">
+      <c r="A1223" t="inlineStr">
+        <is>
+          <t>Iphone 15 pro max</t>
+        </is>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>phones</t>
+        </is>
+      </c>
+      <c r="C1223" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1224">
+      <c r="A1224" t="inlineStr">
+        <is>
+          <t>Iphone 15 pro max</t>
+        </is>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>iphone</t>
+        </is>
+      </c>
+      <c r="C1224" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1225">
+      <c r="A1225" t="inlineStr">
+        <is>
+          <t>Galaxy A71</t>
+        </is>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>phones</t>
+        </is>
+      </c>
+      <c r="C1225" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1226">
+      <c r="A1226" t="inlineStr">
+        <is>
+          <t>Galaxy A71</t>
+        </is>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>samsung</t>
+        </is>
+      </c>
+      <c r="C1226" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1227">
+      <c r="A1227" t="inlineStr">
+        <is>
+          <t>Iphone 15 pro max</t>
+        </is>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>phones</t>
+        </is>
+      </c>
+      <c r="C1227" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1228">
+      <c r="A1228" t="inlineStr">
+        <is>
+          <t>Iphone 15 pro max</t>
+        </is>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>iphone</t>
+        </is>
+      </c>
+      <c r="C1228" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1229">
+      <c r="A1229" t="inlineStr">
+        <is>
+          <t>Sofa</t>
+        </is>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>chair</t>
+        </is>
+      </c>
+      <c r="C1229" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1230">
+      <c r="A1230" t="inlineStr">
+        <is>
+          <t>Sofa</t>
+        </is>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>chair</t>
+        </is>
+      </c>
+      <c r="C1230" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="inlineStr">
+        <is>
+          <t>Sofa</t>
+        </is>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>sofa</t>
+        </is>
+      </c>
+      <c r="C1231" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1232">
+      <c r="A1232" t="inlineStr">
+        <is>
+          <t>Sofa</t>
+        </is>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>salon</t>
+        </is>
+      </c>
+      <c r="C1232" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="inlineStr">
+        <is>
+          <t>Sofa</t>
+        </is>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>salon</t>
+        </is>
+      </c>
+      <c r="C1233" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1234">
+      <c r="A1234" t="inlineStr">
+        <is>
+          <t>Sofa</t>
+        </is>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>chair</t>
+        </is>
+      </c>
+      <c r="C1234" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1235">
+      <c r="A1235" t="inlineStr">
+        <is>
+          <t>Sofa</t>
+        </is>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>chair</t>
+        </is>
+      </c>
+      <c r="C1235" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1236">
+      <c r="A1236" t="inlineStr">
+        <is>
+          <t>Sofa</t>
+        </is>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>sofa</t>
+        </is>
+      </c>
+      <c r="C1236" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1237">
+      <c r="A1237" t="inlineStr">
+        <is>
+          <t>Sofa</t>
+        </is>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>salon</t>
+        </is>
+      </c>
+      <c r="C1237" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1238">
+      <c r="A1238" t="inlineStr">
+        <is>
+          <t>Sofa</t>
+        </is>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>salon</t>
+        </is>
+      </c>
+      <c r="C1238" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="inlineStr">
+        <is>
+          <t>Sofa</t>
+        </is>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>salon</t>
+        </is>
+      </c>
+      <c r="C1239" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1240">
+      <c r="A1240" t="inlineStr">
+        <is>
+          <t>Sofa</t>
+        </is>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>salon</t>
+        </is>
+      </c>
+      <c r="C1240" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1241">
+      <c r="A1241" t="inlineStr">
+        <is>
+          <t>Sofa</t>
+        </is>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>salon</t>
+        </is>
+      </c>
+      <c r="C1241" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1242">
+      <c r="A1242" t="inlineStr">
+        <is>
+          <t>Sofa</t>
+        </is>
+      </c>
+      <c r="B1242" t="inlineStr">
+        <is>
+          <t>salon</t>
+        </is>
+      </c>
+      <c r="C1242" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1243">
+      <c r="A1243" t="inlineStr">
+        <is>
+          <t>Sofa</t>
+        </is>
+      </c>
+      <c r="B1243" t="inlineStr">
+        <is>
+          <t>salon</t>
+        </is>
+      </c>
+      <c r="C1243" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1244">
+      <c r="A1244" t="inlineStr">
+        <is>
+          <t>Sofa</t>
+        </is>
+      </c>
+      <c r="B1244" t="inlineStr">
+        <is>
+          <t>salon</t>
+        </is>
+      </c>
+      <c r="C1244" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1245">
+      <c r="A1245" t="inlineStr">
+        <is>
+          <t>Sofa</t>
+        </is>
+      </c>
+      <c r="B1245" t="inlineStr">
+        <is>
+          <t>chair</t>
+        </is>
+      </c>
+      <c r="C1245" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1246">
+      <c r="A1246" t="inlineStr">
+        <is>
+          <t>Sofa</t>
+        </is>
+      </c>
+      <c r="B1246" t="inlineStr">
+        <is>
+          <t>chair</t>
+        </is>
+      </c>
+      <c r="C1246" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1247">
+      <c r="A1247" t="inlineStr">
+        <is>
+          <t>Sofa</t>
+        </is>
+      </c>
+      <c r="B1247" t="inlineStr">
+        <is>
+          <t>sofa</t>
+        </is>
+      </c>
+      <c r="C1247" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1248">
+      <c r="A1248" t="inlineStr">
+        <is>
+          <t>Sofa</t>
+        </is>
+      </c>
+      <c r="B1248" t="inlineStr">
+        <is>
+          <t>salon</t>
+        </is>
+      </c>
+      <c r="C1248" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1249">
+      <c r="A1249" t="inlineStr">
+        <is>
+          <t>Sofa</t>
+        </is>
+      </c>
+      <c r="B1249" t="inlineStr">
+        <is>
+          <t>salon</t>
+        </is>
+      </c>
+      <c r="C1249" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1250">
+      <c r="A1250" t="inlineStr">
+        <is>
+          <t>Sofa</t>
+        </is>
+      </c>
+      <c r="B1250" t="inlineStr">
+        <is>
+          <t>salon</t>
+        </is>
+      </c>
+      <c r="C1250" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1251">
+      <c r="A1251" t="inlineStr">
+        <is>
+          <t>Sofa</t>
+        </is>
+      </c>
+      <c r="B1251" t="inlineStr">
+        <is>
+          <t>salon</t>
+        </is>
+      </c>
+      <c r="C1251" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1252">
+      <c r="A1252" t="inlineStr">
+        <is>
+          <t>Sofa</t>
+        </is>
+      </c>
+      <c r="B1252" t="inlineStr">
+        <is>
+          <t>salon</t>
+        </is>
+      </c>
+      <c r="C1252" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1253">
+      <c r="A1253" t="inlineStr">
+        <is>
+          <t>Sofa</t>
+        </is>
+      </c>
+      <c r="B1253" t="inlineStr">
+        <is>
+          <t>salon</t>
+        </is>
+      </c>
+      <c r="C1253" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1254">
+      <c r="A1254" t="inlineStr">
+        <is>
+          <t>Sofa</t>
+        </is>
+      </c>
+      <c r="B1254" t="inlineStr">
+        <is>
+          <t>salon</t>
+        </is>
+      </c>
+      <c r="C1254" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1255">
+      <c r="A1255" t="inlineStr">
+        <is>
+          <t>Sofa</t>
+        </is>
+      </c>
+      <c r="B1255" t="inlineStr">
+        <is>
+          <t>salon</t>
+        </is>
+      </c>
+      <c r="C1255" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1256">
+      <c r="A1256" t="inlineStr">
+        <is>
+          <t>Sofa</t>
+        </is>
+      </c>
+      <c r="B1256" t="inlineStr">
+        <is>
+          <t>chair</t>
+        </is>
+      </c>
+      <c r="C1256" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1257">
+      <c r="A1257" t="inlineStr">
+        <is>
+          <t>Sofa</t>
+        </is>
+      </c>
+      <c r="B1257" t="inlineStr">
+        <is>
+          <t>chair</t>
+        </is>
+      </c>
+      <c r="C1257" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1258">
+      <c r="A1258" t="inlineStr">
+        <is>
+          <t>Sofa</t>
+        </is>
+      </c>
+      <c r="B1258" t="inlineStr">
+        <is>
+          <t>sofa</t>
+        </is>
+      </c>
+      <c r="C1258" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1259">
+      <c r="A1259" t="inlineStr">
+        <is>
+          <t>Sofa</t>
+        </is>
+      </c>
+      <c r="B1259" t="inlineStr">
+        <is>
+          <t>salon</t>
+        </is>
+      </c>
+      <c r="C1259" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1260">
+      <c r="A1260" t="inlineStr">
+        <is>
+          <t>Sofa</t>
+        </is>
+      </c>
+      <c r="B1260" t="inlineStr">
+        <is>
+          <t>salon</t>
+        </is>
+      </c>
+      <c r="C1260" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1261">
+      <c r="A1261" t="inlineStr">
+        <is>
+          <t>Sofa</t>
+        </is>
+      </c>
+      <c r="B1261" t="inlineStr">
+        <is>
+          <t>salon</t>
+        </is>
+      </c>
+      <c r="C1261" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1262">
+      <c r="A1262" t="inlineStr">
+        <is>
+          <t>Sofa</t>
+        </is>
+      </c>
+      <c r="B1262" t="inlineStr">
+        <is>
+          <t>salon</t>
+        </is>
+      </c>
+      <c r="C1262" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1263">
+      <c r="A1263" t="inlineStr">
+        <is>
+          <t>Sofa</t>
+        </is>
+      </c>
+      <c r="B1263" t="inlineStr">
+        <is>
+          <t>salon</t>
+        </is>
+      </c>
+      <c r="C1263" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1264">
+      <c r="A1264" t="inlineStr">
+        <is>
+          <t>Sofa</t>
+        </is>
+      </c>
+      <c r="B1264" t="inlineStr">
+        <is>
+          <t>salon</t>
+        </is>
+      </c>
+      <c r="C1264" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1265">
+      <c r="A1265" t="inlineStr">
+        <is>
+          <t>Sofa</t>
+        </is>
+      </c>
+      <c r="B1265" t="inlineStr">
+        <is>
+          <t>salon</t>
+        </is>
+      </c>
+      <c r="C1265" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1266">
+      <c r="A1266" t="inlineStr">
+        <is>
+          <t>Sofa</t>
+        </is>
+      </c>
+      <c r="B1266" t="inlineStr">
+        <is>
+          <t>salon</t>
+        </is>
+      </c>
+      <c r="C1266" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1267">
+      <c r="A1267" t="inlineStr">
+        <is>
+          <t>Sofa</t>
+        </is>
+      </c>
+      <c r="B1267" t="inlineStr">
+        <is>
+          <t>salon</t>
+        </is>
+      </c>
+      <c r="C1267" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1268">
+      <c r="A1268" t="inlineStr">
+        <is>
+          <t>Sofa</t>
+        </is>
+      </c>
+      <c r="B1268" t="inlineStr">
+        <is>
+          <t>salon</t>
+        </is>
+      </c>
+      <c r="C1268" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1269">
+      <c r="A1269" t="inlineStr">
+        <is>
+          <t>Sofa</t>
+        </is>
+      </c>
+      <c r="B1269" t="inlineStr">
+        <is>
+          <t>salon</t>
+        </is>
+      </c>
+      <c r="C1269" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1270">
+      <c r="A1270" t="inlineStr">
+        <is>
+          <t>Sofa</t>
+        </is>
+      </c>
+      <c r="B1270" t="inlineStr">
+        <is>
+          <t>salon</t>
+        </is>
+      </c>
+      <c r="C1270" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1271">
+      <c r="A1271" t="inlineStr">
+        <is>
+          <t>Sofa</t>
+        </is>
+      </c>
+      <c r="B1271" t="inlineStr">
+        <is>
+          <t>salon</t>
+        </is>
+      </c>
+      <c r="C1271" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1272">
+      <c r="A1272" t="inlineStr">
+        <is>
+          <t>Sofa</t>
+        </is>
+      </c>
+      <c r="B1272" t="inlineStr">
+        <is>
+          <t>salon</t>
+        </is>
+      </c>
+      <c r="C1272" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1273">
+      <c r="A1273" t="inlineStr">
+        <is>
+          <t>Sofa</t>
+        </is>
+      </c>
+      <c r="B1273" t="inlineStr">
+        <is>
+          <t>salon</t>
+        </is>
+      </c>
+      <c r="C1273" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1274">
+      <c r="A1274" t="inlineStr">
+        <is>
+          <t>Sofa</t>
+        </is>
+      </c>
+      <c r="B1274" t="inlineStr">
+        <is>
+          <t>salon</t>
+        </is>
+      </c>
+      <c r="C1274" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1275">
+      <c r="A1275" t="inlineStr">
+        <is>
+          <t>Sofa</t>
+        </is>
+      </c>
+      <c r="B1275" t="inlineStr">
+        <is>
+          <t>salon</t>
+        </is>
+      </c>
+      <c r="C1275" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1276">
+      <c r="A1276" t="inlineStr">
+        <is>
+          <t>Sofa</t>
+        </is>
+      </c>
+      <c r="B1276" t="inlineStr">
+        <is>
+          <t>salon</t>
+        </is>
+      </c>
+      <c r="C1276" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1277">
+      <c r="A1277" t="inlineStr">
+        <is>
+          <t>Sofa</t>
+        </is>
+      </c>
+      <c r="B1277" t="inlineStr">
+        <is>
+          <t>salon</t>
+        </is>
+      </c>
+      <c r="C1277" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1278">
+      <c r="A1278" t="inlineStr">
+        <is>
+          <t>Sofa</t>
+        </is>
+      </c>
+      <c r="B1278" t="inlineStr">
+        <is>
+          <t>salon</t>
+        </is>
+      </c>
+      <c r="C1278" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1279">
+      <c r="A1279" t="inlineStr">
+        <is>
+          <t>Sofa</t>
+        </is>
+      </c>
+      <c r="B1279" t="inlineStr">
+        <is>
+          <t>salon</t>
+        </is>
+      </c>
+      <c r="C1279" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1280">
+      <c r="A1280" t="inlineStr">
+        <is>
+          <t>Sofa</t>
+        </is>
+      </c>
+      <c r="B1280" t="inlineStr">
+        <is>
+          <t>salon</t>
+        </is>
+      </c>
+      <c r="C1280" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1281">
+      <c r="A1281" t="inlineStr">
+        <is>
+          <t>Sofa</t>
+        </is>
+      </c>
+      <c r="B1281" t="inlineStr">
+        <is>
+          <t>salon</t>
+        </is>
+      </c>
+      <c r="C1281" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1282">
+      <c r="A1282" t="inlineStr">
+        <is>
+          <t>Sofa</t>
+        </is>
+      </c>
+      <c r="B1282" t="inlineStr">
+        <is>
+          <t>salon</t>
+        </is>
+      </c>
+      <c r="C1282" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1283">
+      <c r="A1283" t="inlineStr">
+        <is>
+          <t>Sofa</t>
+        </is>
+      </c>
+      <c r="B1283" t="inlineStr">
+        <is>
+          <t>chair</t>
+        </is>
+      </c>
+      <c r="C1283" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1284">
+      <c r="A1284" t="inlineStr">
+        <is>
+          <t>Sofa</t>
+        </is>
+      </c>
+      <c r="B1284" t="inlineStr">
+        <is>
+          <t>chair</t>
+        </is>
+      </c>
+      <c r="C1284" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1285">
+      <c r="A1285" t="inlineStr">
+        <is>
+          <t>Sofa</t>
+        </is>
+      </c>
+      <c r="B1285" t="inlineStr">
+        <is>
+          <t>sofa</t>
+        </is>
+      </c>
+      <c r="C1285" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1286">
+      <c r="A1286" t="inlineStr">
+        <is>
+          <t>Sofa</t>
+        </is>
+      </c>
+      <c r="B1286" t="inlineStr">
+        <is>
+          <t>salon</t>
+        </is>
+      </c>
+      <c r="C1286" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1287">
+      <c r="A1287" t="inlineStr">
+        <is>
+          <t>Sofa</t>
+        </is>
+      </c>
+      <c r="B1287" t="inlineStr">
+        <is>
+          <t>salon</t>
+        </is>
+      </c>
+      <c r="C1287" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1288">
+      <c r="A1288" t="inlineStr">
+        <is>
+          <t>Sofa</t>
+        </is>
+      </c>
+      <c r="B1288" t="inlineStr">
+        <is>
+          <t>salon</t>
+        </is>
+      </c>
+      <c r="C1288" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1289">
+      <c r="A1289" t="inlineStr">
+        <is>
+          <t>Sofa</t>
+        </is>
+      </c>
+      <c r="B1289" t="inlineStr">
+        <is>
+          <t>salon</t>
+        </is>
+      </c>
+      <c r="C1289" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1290">
+      <c r="A1290" t="inlineStr">
+        <is>
+          <t>Sofa</t>
+        </is>
+      </c>
+      <c r="B1290" t="inlineStr">
+        <is>
+          <t>salon</t>
+        </is>
+      </c>
+      <c r="C1290" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1291">
+      <c r="A1291" t="inlineStr">
+        <is>
+          <t>Sofa</t>
+        </is>
+      </c>
+      <c r="B1291" t="inlineStr">
+        <is>
+          <t>salon</t>
+        </is>
+      </c>
+      <c r="C1291" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1292">
+      <c r="A1292" t="inlineStr">
+        <is>
+          <t>Sofa</t>
+        </is>
+      </c>
+      <c r="B1292" t="inlineStr">
+        <is>
+          <t>salon</t>
+        </is>
+      </c>
+      <c r="C1292" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1293">
+      <c r="A1293" t="inlineStr">
+        <is>
+          <t>Sofa</t>
+        </is>
+      </c>
+      <c r="B1293" t="inlineStr">
+        <is>
+          <t>salon</t>
+        </is>
+      </c>
+      <c r="C1293" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1294">
+      <c r="A1294" t="inlineStr">
+        <is>
+          <t>Sofa</t>
+        </is>
+      </c>
+      <c r="B1294" t="inlineStr">
+        <is>
+          <t>salon</t>
+        </is>
+      </c>
+      <c r="C1294" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1295">
+      <c r="A1295" t="inlineStr">
+        <is>
+          <t>Sofa</t>
+        </is>
+      </c>
+      <c r="B1295" t="inlineStr">
+        <is>
+          <t>salon</t>
+        </is>
+      </c>
+      <c r="C1295" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1296">
+      <c r="A1296" t="inlineStr">
+        <is>
+          <t>Sofa</t>
+        </is>
+      </c>
+      <c r="B1296" t="inlineStr">
+        <is>
+          <t>salon</t>
+        </is>
+      </c>
+      <c r="C1296" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1297">
+      <c r="A1297" t="inlineStr">
+        <is>
+          <t>Sofa</t>
+        </is>
+      </c>
+      <c r="B1297" t="inlineStr">
+        <is>
+          <t>salon</t>
+        </is>
+      </c>
+      <c r="C1297" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1298">
+      <c r="A1298" t="inlineStr">
+        <is>
+          <t>Sofa</t>
+        </is>
+      </c>
+      <c r="B1298" t="inlineStr">
+        <is>
+          <t>salon</t>
+        </is>
+      </c>
+      <c r="C1298" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1299">
+      <c r="A1299" t="inlineStr">
+        <is>
+          <t>Sofa</t>
+        </is>
+      </c>
+      <c r="B1299" t="inlineStr">
+        <is>
+          <t>salon</t>
+        </is>
+      </c>
+      <c r="C1299" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1300">
+      <c r="A1300" t="inlineStr">
+        <is>
+          <t>Sofa</t>
+        </is>
+      </c>
+      <c r="B1300" t="inlineStr">
+        <is>
+          <t>salon</t>
+        </is>
+      </c>
+      <c r="C1300" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1301">
+      <c r="A1301" t="inlineStr">
+        <is>
+          <t>Sofa</t>
+        </is>
+      </c>
+      <c r="B1301" t="inlineStr">
+        <is>
+          <t>salon</t>
+        </is>
+      </c>
+      <c r="C1301" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1302">
+      <c r="A1302" t="inlineStr">
+        <is>
+          <t>Sofa</t>
+        </is>
+      </c>
+      <c r="B1302" t="inlineStr">
+        <is>
+          <t>salon</t>
+        </is>
+      </c>
+      <c r="C1302" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1303">
+      <c r="A1303" t="inlineStr">
+        <is>
+          <t>Sofa</t>
+        </is>
+      </c>
+      <c r="B1303" t="inlineStr">
+        <is>
+          <t>salon</t>
+        </is>
+      </c>
+      <c r="C1303" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1304">
+      <c r="A1304" t="inlineStr">
+        <is>
+          <t>Sofa</t>
+        </is>
+      </c>
+      <c r="B1304" t="inlineStr">
+        <is>
+          <t>salon</t>
+        </is>
+      </c>
+      <c r="C1304" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1305">
+      <c r="A1305" t="inlineStr">
+        <is>
+          <t>Sofa</t>
+        </is>
+      </c>
+      <c r="B1305" t="inlineStr">
+        <is>
+          <t>salon</t>
+        </is>
+      </c>
+      <c r="C1305" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1306">
+      <c r="A1306" t="inlineStr">
+        <is>
+          <t>Sofa</t>
+        </is>
+      </c>
+      <c r="B1306" t="inlineStr">
+        <is>
+          <t>salon</t>
+        </is>
+      </c>
+      <c r="C1306" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1307">
+      <c r="A1307" t="inlineStr">
+        <is>
+          <t>Sofa</t>
+        </is>
+      </c>
+      <c r="B1307" t="inlineStr">
+        <is>
+          <t>salon</t>
+        </is>
+      </c>
+      <c r="C1307" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1308">
+      <c r="A1308" t="inlineStr">
+        <is>
+          <t>Sofa</t>
+        </is>
+      </c>
+      <c r="B1308" t="inlineStr">
+        <is>
+          <t>salon</t>
+        </is>
+      </c>
+      <c r="C1308" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1309">
+      <c r="A1309" t="inlineStr">
+        <is>
+          <t>Sofa</t>
+        </is>
+      </c>
+      <c r="B1309" t="inlineStr">
+        <is>
+          <t>salon</t>
+        </is>
+      </c>
+      <c r="C1309" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1310">
+      <c r="A1310" t="inlineStr">
+        <is>
+          <t>Sofa</t>
+        </is>
+      </c>
+      <c r="B1310" t="inlineStr">
+        <is>
+          <t>salon</t>
+        </is>
+      </c>
+      <c r="C1310" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1311">
+      <c r="A1311" t="inlineStr">
+        <is>
+          <t>Sofa</t>
+        </is>
+      </c>
+      <c r="B1311" t="inlineStr">
+        <is>
+          <t>salon</t>
+        </is>
+      </c>
+      <c r="C1311" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1312">
+      <c r="A1312" t="inlineStr">
+        <is>
+          <t>Sofa</t>
+        </is>
+      </c>
+      <c r="B1312" t="inlineStr">
+        <is>
+          <t>salon</t>
+        </is>
+      </c>
+      <c r="C1312" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1313">
+      <c r="A1313" t="inlineStr">
+        <is>
+          <t>Sofa</t>
+        </is>
+      </c>
+      <c r="B1313" t="inlineStr">
+        <is>
+          <t>salon</t>
+        </is>
+      </c>
+      <c r="C1313" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1314">
+      <c r="A1314" t="inlineStr">
+        <is>
+          <t>Sofa</t>
+        </is>
+      </c>
+      <c r="B1314" t="inlineStr">
+        <is>
+          <t>salon</t>
+        </is>
+      </c>
+      <c r="C1314" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1315">
+      <c r="A1315" t="inlineStr">
+        <is>
+          <t>Sofa</t>
+        </is>
+      </c>
+      <c r="B1315" t="inlineStr">
+        <is>
+          <t>salon</t>
+        </is>
+      </c>
+      <c r="C1315" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1316">
+      <c r="A1316" t="inlineStr">
+        <is>
+          <t>Sofa</t>
+        </is>
+      </c>
+      <c r="B1316" t="inlineStr">
+        <is>
+          <t>salon</t>
+        </is>
+      </c>
+      <c r="C1316" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1317">
+      <c r="A1317" t="inlineStr">
+        <is>
+          <t>Sofa</t>
+        </is>
+      </c>
+      <c r="B1317" t="inlineStr">
+        <is>
+          <t>salon</t>
+        </is>
+      </c>
+      <c r="C1317" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1318">
+      <c r="A1318" t="inlineStr">
+        <is>
+          <t>Sofa</t>
+        </is>
+      </c>
+      <c r="B1318" t="inlineStr">
+        <is>
+          <t>salon</t>
+        </is>
+      </c>
+      <c r="C1318" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1319">
+      <c r="A1319" t="inlineStr">
+        <is>
+          <t>Sofa</t>
+        </is>
+      </c>
+      <c r="B1319" t="inlineStr">
+        <is>
+          <t>salon</t>
+        </is>
+      </c>
+      <c r="C1319" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1320">
+      <c r="A1320" t="inlineStr">
+        <is>
+          <t>Sofa</t>
+        </is>
+      </c>
+      <c r="B1320" t="inlineStr">
+        <is>
+          <t>salon</t>
+        </is>
+      </c>
+      <c r="C1320" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1321">
+      <c r="A1321" t="inlineStr">
+        <is>
+          <t>Sofa</t>
+        </is>
+      </c>
+      <c r="B1321" t="inlineStr">
+        <is>
+          <t>salon</t>
+        </is>
+      </c>
+      <c r="C1321" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1322">
+      <c r="A1322" t="inlineStr">
+        <is>
+          <t>Sofa</t>
+        </is>
+      </c>
+      <c r="B1322" t="inlineStr">
+        <is>
+          <t>salon</t>
+        </is>
+      </c>
+      <c r="C1322" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1323">
+      <c r="A1323" t="inlineStr">
+        <is>
+          <t>Sofa</t>
+        </is>
+      </c>
+      <c r="B1323" t="inlineStr">
+        <is>
+          <t>salon</t>
+        </is>
+      </c>
+      <c r="C1323" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1324">
+      <c r="A1324" t="inlineStr">
+        <is>
+          <t>Sofa</t>
+        </is>
+      </c>
+      <c r="B1324" t="inlineStr">
+        <is>
+          <t>salon</t>
+        </is>
+      </c>
+      <c r="C1324" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1325">
+      <c r="A1325" t="inlineStr">
+        <is>
+          <t>Sofa</t>
+        </is>
+      </c>
+      <c r="B1325" t="inlineStr">
+        <is>
+          <t>salon</t>
+        </is>
+      </c>
+      <c r="C1325" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1326">
+      <c r="A1326" t="inlineStr">
+        <is>
+          <t>Sofa</t>
+        </is>
+      </c>
+      <c r="B1326" t="inlineStr">
+        <is>
+          <t>salon</t>
+        </is>
+      </c>
+      <c r="C1326" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1327">
+      <c r="A1327" t="inlineStr">
+        <is>
+          <t>Sofa</t>
+        </is>
+      </c>
+      <c r="B1327" t="inlineStr">
+        <is>
+          <t>salon</t>
+        </is>
+      </c>
+      <c r="C1327" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1328">
+      <c r="A1328" t="inlineStr">
+        <is>
+          <t>Sofa</t>
+        </is>
+      </c>
+      <c r="B1328" t="inlineStr">
+        <is>
+          <t>salon</t>
+        </is>
+      </c>
+      <c r="C1328" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1329">
+      <c r="A1329" t="inlineStr">
+        <is>
+          <t>Sofa</t>
+        </is>
+      </c>
+      <c r="B1329" t="inlineStr">
+        <is>
+          <t>salon</t>
+        </is>
+      </c>
+      <c r="C1329" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1330">
+      <c r="A1330" t="inlineStr">
+        <is>
+          <t>Sofa</t>
+        </is>
+      </c>
+      <c r="B1330" t="inlineStr">
+        <is>
+          <t>salon</t>
+        </is>
+      </c>
+      <c r="C1330" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1331">
+      <c r="A1331" t="inlineStr">
+        <is>
+          <t>Sofa</t>
+        </is>
+      </c>
+      <c r="B1331" t="inlineStr">
+        <is>
+          <t>salon</t>
+        </is>
+      </c>
+      <c r="C1331" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1332">
+      <c r="A1332" t="inlineStr">
+        <is>
+          <t>Sofa</t>
+        </is>
+      </c>
+      <c r="B1332" t="inlineStr">
+        <is>
+          <t>salon</t>
+        </is>
+      </c>
+      <c r="C1332" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1333">
+      <c r="A1333" t="inlineStr">
+        <is>
+          <t>Sofa</t>
+        </is>
+      </c>
+      <c r="B1333" t="inlineStr">
+        <is>
+          <t>salon</t>
+        </is>
+      </c>
+      <c r="C1333" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1334">
+      <c r="A1334" t="inlineStr">
+        <is>
+          <t>Sofa</t>
+        </is>
+      </c>
+      <c r="B1334" t="inlineStr">
+        <is>
+          <t>chair</t>
+        </is>
+      </c>
+      <c r="C1334" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1335">
+      <c r="A1335" t="inlineStr">
+        <is>
+          <t>Sofa</t>
+        </is>
+      </c>
+      <c r="B1335" t="inlineStr">
+        <is>
+          <t>chair</t>
+        </is>
+      </c>
+      <c r="C1335" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1336">
+      <c r="A1336" t="inlineStr">
+        <is>
+          <t>Sofa</t>
+        </is>
+      </c>
+      <c r="B1336" t="inlineStr">
+        <is>
+          <t>sofa</t>
+        </is>
+      </c>
+      <c r="C1336" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1337">
+      <c r="A1337" t="inlineStr">
+        <is>
+          <t>Sofa</t>
+        </is>
+      </c>
+      <c r="B1337" t="inlineStr">
+        <is>
+          <t>salon</t>
+        </is>
+      </c>
+      <c r="C1337" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1338">
+      <c r="A1338" t="inlineStr">
+        <is>
+          <t>Sofa</t>
+        </is>
+      </c>
+      <c r="B1338" t="inlineStr">
+        <is>
+          <t>salon</t>
+        </is>
+      </c>
+      <c r="C1338" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1339">
+      <c r="A1339" t="inlineStr">
+        <is>
+          <t>Sofa</t>
+        </is>
+      </c>
+      <c r="B1339" t="inlineStr">
+        <is>
+          <t>salon</t>
+        </is>
+      </c>
+      <c r="C1339" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1340">
+      <c r="A1340" t="inlineStr">
+        <is>
+          <t>Sofa</t>
+        </is>
+      </c>
+      <c r="B1340" t="inlineStr">
+        <is>
+          <t>salon</t>
+        </is>
+      </c>
+      <c r="C1340" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1341">
+      <c r="A1341" t="inlineStr">
+        <is>
+          <t>Sofa</t>
+        </is>
+      </c>
+      <c r="B1341" t="inlineStr">
+        <is>
+          <t>salon</t>
+        </is>
+      </c>
+      <c r="C1341" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1342">
+      <c r="A1342" t="inlineStr">
+        <is>
+          <t>Sofa</t>
+        </is>
+      </c>
+      <c r="B1342" t="inlineStr">
+        <is>
+          <t>salon</t>
+        </is>
+      </c>
+      <c r="C1342" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1343">
+      <c r="A1343" t="inlineStr">
+        <is>
+          <t>Sofa</t>
+        </is>
+      </c>
+      <c r="B1343" t="inlineStr">
+        <is>
+          <t>salon</t>
+        </is>
+      </c>
+      <c r="C1343" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1344">
+      <c r="A1344" t="inlineStr">
+        <is>
+          <t>Sofa</t>
+        </is>
+      </c>
+      <c r="B1344" t="inlineStr">
+        <is>
+          <t>salon</t>
+        </is>
+      </c>
+      <c r="C1344" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1345">
+      <c r="A1345" t="inlineStr">
+        <is>
+          <t>Sofa</t>
+        </is>
+      </c>
+      <c r="B1345" t="inlineStr">
+        <is>
+          <t>salon</t>
+        </is>
+      </c>
+      <c r="C1345" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1346">
+      <c r="A1346" t="inlineStr">
+        <is>
+          <t>Sofa</t>
+        </is>
+      </c>
+      <c r="B1346" t="inlineStr">
+        <is>
+          <t>salon</t>
+        </is>
+      </c>
+      <c r="C1346" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1347">
+      <c r="A1347" t="inlineStr">
+        <is>
+          <t>Sofa</t>
+        </is>
+      </c>
+      <c r="B1347" t="inlineStr">
+        <is>
+          <t>salon</t>
+        </is>
+      </c>
+      <c r="C1347" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1348">
+      <c r="A1348" t="inlineStr">
+        <is>
+          <t>Sofa</t>
+        </is>
+      </c>
+      <c r="B1348" t="inlineStr">
+        <is>
+          <t>salon</t>
+        </is>
+      </c>
+      <c r="C1348" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1349">
+      <c r="A1349" t="inlineStr">
+        <is>
+          <t>Sofa</t>
+        </is>
+      </c>
+      <c r="B1349" t="inlineStr">
+        <is>
+          <t>salon</t>
+        </is>
+      </c>
+      <c r="C1349" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1350">
+      <c r="A1350" t="inlineStr">
+        <is>
+          <t>Sofa</t>
+        </is>
+      </c>
+      <c r="B1350" t="inlineStr">
+        <is>
+          <t>salon</t>
+        </is>
+      </c>
+      <c r="C1350" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1351">
+      <c r="A1351" t="inlineStr">
+        <is>
+          <t>Sofa</t>
+        </is>
+      </c>
+      <c r="B1351" t="inlineStr">
+        <is>
+          <t>salon</t>
+        </is>
+      </c>
+      <c r="C1351" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1352">
+      <c r="A1352" t="inlineStr">
+        <is>
+          <t>Sofa</t>
+        </is>
+      </c>
+      <c r="B1352" t="inlineStr">
+        <is>
+          <t>salon</t>
+        </is>
+      </c>
+      <c r="C1352" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1353">
+      <c r="A1353" t="inlineStr">
+        <is>
+          <t>Sofa</t>
+        </is>
+      </c>
+      <c r="B1353" t="inlineStr">
+        <is>
+          <t>salon</t>
+        </is>
+      </c>
+      <c r="C1353" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1354">
+      <c r="A1354" t="inlineStr">
+        <is>
+          <t>Sofa</t>
+        </is>
+      </c>
+      <c r="B1354" t="inlineStr">
+        <is>
+          <t>salon</t>
+        </is>
+      </c>
+      <c r="C1354" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1355">
+      <c r="A1355" t="inlineStr">
+        <is>
+          <t>Sofa</t>
+        </is>
+      </c>
+      <c r="B1355" t="inlineStr">
+        <is>
+          <t>salon</t>
+        </is>
+      </c>
+      <c r="C1355" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1356">
+      <c r="A1356" t="inlineStr">
+        <is>
+          <t>Sofa</t>
+        </is>
+      </c>
+      <c r="B1356" t="inlineStr">
+        <is>
+          <t>salon</t>
+        </is>
+      </c>
+      <c r="C1356" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1357">
+      <c r="A1357" t="inlineStr">
+        <is>
+          <t>Sofa</t>
+        </is>
+      </c>
+      <c r="B1357" t="inlineStr">
+        <is>
+          <t>salon</t>
+        </is>
+      </c>
+      <c r="C1357" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1358">
+      <c r="A1358" t="inlineStr">
+        <is>
+          <t>Sofa</t>
+        </is>
+      </c>
+      <c r="B1358" t="inlineStr">
+        <is>
+          <t>salon</t>
+        </is>
+      </c>
+      <c r="C1358" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1359">
+      <c r="A1359" t="inlineStr">
+        <is>
+          <t>Sofa</t>
+        </is>
+      </c>
+      <c r="B1359" t="inlineStr">
+        <is>
+          <t>salon</t>
+        </is>
+      </c>
+      <c r="C1359" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1360">
+      <c r="A1360" t="inlineStr">
+        <is>
+          <t>Sofa</t>
+        </is>
+      </c>
+      <c r="B1360" t="inlineStr">
+        <is>
+          <t>salon</t>
+        </is>
+      </c>
+      <c r="C1360" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1361">
+      <c r="A1361" t="inlineStr">
+        <is>
+          <t>Sofa</t>
+        </is>
+      </c>
+      <c r="B1361" t="inlineStr">
+        <is>
+          <t>salon</t>
+        </is>
+      </c>
+      <c r="C1361" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1362">
+      <c r="A1362" t="inlineStr">
+        <is>
+          <t>Sofa</t>
+        </is>
+      </c>
+      <c r="B1362" t="inlineStr">
+        <is>
+          <t>salon</t>
+        </is>
+      </c>
+      <c r="C1362" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1363">
+      <c r="A1363" t="inlineStr">
+        <is>
+          <t>Sofa</t>
+        </is>
+      </c>
+      <c r="B1363" t="inlineStr">
+        <is>
+          <t>salon</t>
+        </is>
+      </c>
+      <c r="C1363" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1364">
+      <c r="A1364" t="inlineStr">
+        <is>
+          <t>Sofa</t>
+        </is>
+      </c>
+      <c r="B1364" t="inlineStr">
+        <is>
+          <t>salon</t>
+        </is>
+      </c>
+      <c r="C1364" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1365">
+      <c r="A1365" t="inlineStr">
+        <is>
+          <t>Sofa</t>
+        </is>
+      </c>
+      <c r="B1365" t="inlineStr">
+        <is>
+          <t>salon</t>
+        </is>
+      </c>
+      <c r="C1365" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1366">
+      <c r="A1366" t="inlineStr">
+        <is>
+          <t>Sofa</t>
+        </is>
+      </c>
+      <c r="B1366" t="inlineStr">
+        <is>
+          <t>salon</t>
+        </is>
+      </c>
+      <c r="C1366" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1367">
+      <c r="A1367" t="inlineStr">
+        <is>
+          <t>Sofa</t>
+        </is>
+      </c>
+      <c r="B1367" t="inlineStr">
+        <is>
+          <t>salon</t>
+        </is>
+      </c>
+      <c r="C1367" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1368">
+      <c r="A1368" t="inlineStr">
+        <is>
+          <t>Sofa</t>
+        </is>
+      </c>
+      <c r="B1368" t="inlineStr">
+        <is>
+          <t>salon</t>
+        </is>
+      </c>
+      <c r="C1368" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1369">
+      <c r="A1369" t="inlineStr">
+        <is>
+          <t>Sofa</t>
+        </is>
+      </c>
+      <c r="B1369" t="inlineStr">
+        <is>
+          <t>salon</t>
+        </is>
+      </c>
+      <c r="C1369" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1370">
+      <c r="A1370" t="inlineStr">
+        <is>
+          <t>Sofa</t>
+        </is>
+      </c>
+      <c r="B1370" t="inlineStr">
+        <is>
+          <t>salon</t>
+        </is>
+      </c>
+      <c r="C1370" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1371">
+      <c r="A1371" t="inlineStr">
+        <is>
+          <t>Sofa</t>
+        </is>
+      </c>
+      <c r="B1371" t="inlineStr">
+        <is>
+          <t>salon</t>
+        </is>
+      </c>
+      <c r="C1371" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1372">
+      <c r="A1372" t="inlineStr">
+        <is>
+          <t>Sofa</t>
+        </is>
+      </c>
+      <c r="B1372" t="inlineStr">
+        <is>
+          <t>salon</t>
+        </is>
+      </c>
+      <c r="C1372" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1373">
+      <c r="A1373" t="inlineStr">
+        <is>
+          <t>Sofa</t>
+        </is>
+      </c>
+      <c r="B1373" t="inlineStr">
+        <is>
+          <t>salon</t>
+        </is>
+      </c>
+      <c r="C1373" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1374">
+      <c r="A1374" t="inlineStr">
+        <is>
+          <t>Sofa</t>
+        </is>
+      </c>
+      <c r="B1374" t="inlineStr">
+        <is>
+          <t>salon</t>
+        </is>
+      </c>
+      <c r="C1374" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1375">
+      <c r="A1375" t="inlineStr">
+        <is>
+          <t>Sofa</t>
+        </is>
+      </c>
+      <c r="B1375" t="inlineStr">
+        <is>
+          <t>salon</t>
+        </is>
+      </c>
+      <c r="C1375" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1376">
+      <c r="A1376" t="inlineStr">
+        <is>
+          <t>Sofa</t>
+        </is>
+      </c>
+      <c r="B1376" t="inlineStr">
+        <is>
+          <t>salon</t>
+        </is>
+      </c>
+      <c r="C1376" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1377">
+      <c r="A1377" t="inlineStr">
+        <is>
+          <t>Sofa</t>
+        </is>
+      </c>
+      <c r="B1377" t="inlineStr">
+        <is>
+          <t>salon</t>
+        </is>
+      </c>
+      <c r="C1377" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1378">
+      <c r="A1378" t="inlineStr">
+        <is>
+          <t>Sofa</t>
+        </is>
+      </c>
+      <c r="B1378" t="inlineStr">
+        <is>
+          <t>salon</t>
+        </is>
+      </c>
+      <c r="C1378" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1379">
+      <c r="A1379" t="inlineStr">
+        <is>
+          <t>Sofa</t>
+        </is>
+      </c>
+      <c r="B1379" t="inlineStr">
+        <is>
+          <t>salon</t>
+        </is>
+      </c>
+      <c r="C1379" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1380">
+      <c r="A1380" t="inlineStr">
+        <is>
+          <t>Sofa</t>
+        </is>
+      </c>
+      <c r="B1380" t="inlineStr">
+        <is>
+          <t>salon</t>
+        </is>
+      </c>
+      <c r="C1380" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1381">
+      <c r="A1381" t="inlineStr">
+        <is>
+          <t>Sofa</t>
+        </is>
+      </c>
+      <c r="B1381" t="inlineStr">
+        <is>
+          <t>salon</t>
+        </is>
+      </c>
+      <c r="C1381" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1382">
+      <c r="A1382" t="inlineStr">
+        <is>
+          <t>Sofa</t>
+        </is>
+      </c>
+      <c r="B1382" t="inlineStr">
+        <is>
+          <t>salon</t>
+        </is>
+      </c>
+      <c r="C1382" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1383">
+      <c r="A1383" t="inlineStr">
+        <is>
+          <t>Sofa</t>
+        </is>
+      </c>
+      <c r="B1383" t="inlineStr">
+        <is>
+          <t>salon</t>
+        </is>
+      </c>
+      <c r="C1383" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1384">
+      <c r="A1384" t="inlineStr">
+        <is>
+          <t>Sofa</t>
+        </is>
+      </c>
+      <c r="B1384" t="inlineStr">
+        <is>
+          <t>salon</t>
+        </is>
+      </c>
+      <c r="C1384" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1385">
+      <c r="A1385" t="inlineStr">
+        <is>
+          <t>gta v</t>
+        </is>
+      </c>
+      <c r="B1385" t="inlineStr">
+        <is>
+          <t>Toys</t>
+        </is>
+      </c>
+      <c r="C1385" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1386">
+      <c r="A1386" t="inlineStr">
+        <is>
+          <t>gta v</t>
+        </is>
+      </c>
+      <c r="B1386" t="inlineStr">
+        <is>
+          <t>gaming</t>
+        </is>
+      </c>
+      <c r="C1386" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1387">
+      <c r="A1387" t="inlineStr">
+        <is>
+          <t>gta v</t>
+        </is>
+      </c>
+      <c r="B1387" t="inlineStr">
+        <is>
+          <t>gta v</t>
+        </is>
+      </c>
+      <c r="C1387" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1388">
+      <c r="A1388" t="inlineStr">
+        <is>
+          <t>gta v</t>
+        </is>
+      </c>
+      <c r="B1388" t="inlineStr">
+        <is>
+          <t>playstation</t>
+        </is>
+      </c>
+      <c r="C1388" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1389">
+      <c r="A1389" t="inlineStr">
+        <is>
+          <t>gta v</t>
+        </is>
+      </c>
+      <c r="B1389" t="inlineStr">
+        <is>
+          <t>games</t>
+        </is>
+      </c>
+      <c r="C1389" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1390">
+      <c r="A1390" t="inlineStr">
+        <is>
+          <t>fifa 25</t>
+        </is>
+      </c>
+      <c r="B1390" t="inlineStr">
+        <is>
+          <t>Toys</t>
+        </is>
+      </c>
+      <c r="C1390" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1391">
+      <c r="A1391" t="inlineStr">
+        <is>
+          <t>fifa 25</t>
+        </is>
+      </c>
+      <c r="B1391" t="inlineStr">
+        <is>
+          <t>gaming</t>
+        </is>
+      </c>
+      <c r="C1391" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1392">
+      <c r="A1392" t="inlineStr">
+        <is>
+          <t>fifa 25</t>
+        </is>
+      </c>
+      <c r="B1392" t="inlineStr">
+        <is>
+          <t>gta v</t>
+        </is>
+      </c>
+      <c r="C1392" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1393">
+      <c r="A1393" t="inlineStr">
+        <is>
+          <t>fifa 25</t>
+        </is>
+      </c>
+      <c r="B1393" t="inlineStr">
+        <is>
+          <t>playstation</t>
+        </is>
+      </c>
+      <c r="C1393" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1394">
+      <c r="A1394" t="inlineStr">
+        <is>
+          <t>fifa 25</t>
+        </is>
+      </c>
+      <c r="B1394" t="inlineStr">
+        <is>
+          <t>games</t>
+        </is>
+      </c>
+      <c r="C1394" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1395">
+      <c r="A1395" t="inlineStr">
+        <is>
+          <t>fifa 25</t>
+        </is>
+      </c>
+      <c r="B1395" t="inlineStr">
+        <is>
+          <t>football</t>
+        </is>
+      </c>
+      <c r="C1395" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1396">
+      <c r="A1396" t="inlineStr">
+        <is>
+          <t>fifa 25</t>
+        </is>
+      </c>
+      <c r="B1396" t="inlineStr">
+        <is>
+          <t>sport</t>
+        </is>
+      </c>
+      <c r="C1396" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1397">
+      <c r="A1397" t="inlineStr">
+        <is>
+          <t>Galaxy A71</t>
+        </is>
+      </c>
+      <c r="B1397" t="inlineStr">
+        <is>
+          <t>phones</t>
+        </is>
+      </c>
+      <c r="C1397" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1398">
+      <c r="A1398" t="inlineStr">
+        <is>
+          <t>Galaxy A71</t>
+        </is>
+      </c>
+      <c r="B1398" t="inlineStr">
+        <is>
+          <t>samsung</t>
+        </is>
+      </c>
+      <c r="C1398" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1399">
+      <c r="A1399" t="inlineStr">
+        <is>
+          <t>Iphone 15 pro max</t>
+        </is>
+      </c>
+      <c r="B1399" t="inlineStr">
+        <is>
+          <t>phones</t>
+        </is>
+      </c>
+      <c r="C1399" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1400">
+      <c r="A1400" t="inlineStr">
+        <is>
+          <t>Iphone 15 pro max</t>
+        </is>
+      </c>
+      <c r="B1400" t="inlineStr">
+        <is>
+          <t>iphone</t>
+        </is>
+      </c>
+      <c r="C1400" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1401">
+      <c r="A1401" t="inlineStr">
+        <is>
+          <t>Sofa</t>
+        </is>
+      </c>
+      <c r="B1401" t="inlineStr">
+        <is>
+          <t>chair</t>
+        </is>
+      </c>
+      <c r="C1401" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1402">
+      <c r="A1402" t="inlineStr">
+        <is>
+          <t>Sofa</t>
+        </is>
+      </c>
+      <c r="B1402" t="inlineStr">
+        <is>
+          <t>chair</t>
+        </is>
+      </c>
+      <c r="C1402" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1403">
+      <c r="A1403" t="inlineStr">
+        <is>
+          <t>Sofa</t>
+        </is>
+      </c>
+      <c r="B1403" t="inlineStr">
+        <is>
+          <t>sofa</t>
+        </is>
+      </c>
+      <c r="C1403" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1404">
+      <c r="A1404" t="inlineStr">
+        <is>
+          <t>fifa 25</t>
+        </is>
+      </c>
+      <c r="B1404" t="inlineStr">
+        <is>
+          <t>Toys</t>
+        </is>
+      </c>
+      <c r="C1404" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1405">
+      <c r="A1405" t="inlineStr">
+        <is>
+          <t>fifa 25</t>
+        </is>
+      </c>
+      <c r="B1405" t="inlineStr">
+        <is>
+          <t>gaming</t>
+        </is>
+      </c>
+      <c r="C1405" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1406">
+      <c r="A1406" t="inlineStr">
+        <is>
+          <t>fifa 25</t>
+        </is>
+      </c>
+      <c r="B1406" t="inlineStr">
+        <is>
+          <t>gta v</t>
+        </is>
+      </c>
+      <c r="C1406" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1407">
+      <c r="A1407" t="inlineStr">
+        <is>
+          <t>fifa 25</t>
+        </is>
+      </c>
+      <c r="B1407" t="inlineStr">
+        <is>
+          <t>playstation</t>
+        </is>
+      </c>
+      <c r="C1407" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1408">
+      <c r="A1408" t="inlineStr">
+        <is>
+          <t>fifa 25</t>
+        </is>
+      </c>
+      <c r="B1408" t="inlineStr">
+        <is>
+          <t>games</t>
+        </is>
+      </c>
+      <c r="C1408" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1409">
+      <c r="A1409" t="inlineStr">
+        <is>
+          <t>fifa 25</t>
+        </is>
+      </c>
+      <c r="B1409" t="inlineStr">
+        <is>
+          <t>football</t>
+        </is>
+      </c>
+      <c r="C1409" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1410">
+      <c r="A1410" t="inlineStr">
+        <is>
+          <t>fifa 25</t>
+        </is>
+      </c>
+      <c r="B1410" t="inlineStr">
+        <is>
+          <t>sport</t>
+        </is>
+      </c>
+      <c r="C1410" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
